--- a/doorgen/task/time_table.xlsx
+++ b/doorgen/task/time_table.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -354,7 +354,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1">
         <v>1</v>
       </c>
@@ -383,7 +383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,14 +438,22 @@
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(1,42)</f>
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="Q2" t="str">
+        <f ca="1">CONCATENATE(SUM(P2,-2),"-",SUM(P2,2))</f>
+        <v>11-15</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,42)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>18</v>
+      </c>
+      <c r="S2" t="str">
+        <f ca="1">CONCATENATE(SUM(R2,-2),"-",SUM(R2,2))</f>
+        <v>16-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,14 +508,22 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:R63" ca="1" si="5">RANDBETWEEN(1,42)</f>
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3" ca="1" si="6">CONCATENATE(SUM(P3,-2),"-",SUM(P3,2))</f>
+        <v>8-12</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3" ca="1" si="7">CONCATENATE(SUM(R3,-2),"-",SUM(R3,2))</f>
+        <v>2-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -529,47 +545,55 @@
         <v>21</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:I4" si="6">CONCATENATE(SUM(F4,-2),"-",SUM(F4,2))</f>
+        <f t="shared" ref="G4:I4" si="8">CONCATENATE(SUM(F4,-2),"-",SUM(F4,2))</f>
         <v>19-23</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9-13</v>
       </c>
       <c r="J4">
         <v>17</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4" si="7">CONCATENATE(SUM(J4,-2),"-",SUM(J4,2))</f>
+        <f t="shared" ref="K4" si="9">CONCATENATE(SUM(J4,-2),"-",SUM(J4,2))</f>
         <v>15-19</v>
       </c>
       <c r="L4">
         <v>31</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4" si="8">CONCATENATE(SUM(L4,-2),"-",SUM(L4,2))</f>
+        <f t="shared" ref="M4" si="10">CONCATENATE(SUM(L4,-2),"-",SUM(L4,2))</f>
         <v>29-33</v>
       </c>
       <c r="N4">
         <v>25</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4" si="9">CONCATENATE(SUM(N4,-2),"-",SUM(N4,2))</f>
+        <f t="shared" ref="O4" si="11">CONCATENATE(SUM(N4,-2),"-",SUM(N4,2))</f>
         <v>23-27</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4" ca="1" si="12">CONCATENATE(SUM(P4,-2),"-",SUM(P4,2))</f>
+        <v>11-15</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4" ca="1" si="13">CONCATENATE(SUM(R4,-2),"-",SUM(R4,2))</f>
+        <v>4-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -591,47 +615,55 @@
         <v>21</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:I5" si="10">CONCATENATE(SUM(F5,-2),"-",SUM(F5,2))</f>
+        <f t="shared" ref="G5:I5" si="14">CONCATENATE(SUM(F5,-2),"-",SUM(F5,2))</f>
         <v>19-23</v>
       </c>
       <c r="H5">
         <v>11</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9-13</v>
       </c>
       <c r="J5">
         <v>17</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5" si="11">CONCATENATE(SUM(J5,-2),"-",SUM(J5,2))</f>
+        <f t="shared" ref="K5" si="15">CONCATENATE(SUM(J5,-2),"-",SUM(J5,2))</f>
         <v>15-19</v>
       </c>
       <c r="L5">
         <v>31</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5" si="12">CONCATENATE(SUM(L5,-2),"-",SUM(L5,2))</f>
+        <f t="shared" ref="M5" si="16">CONCATENATE(SUM(L5,-2),"-",SUM(L5,2))</f>
         <v>29-33</v>
       </c>
       <c r="N5">
         <v>25</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ref="O5" si="13">CONCATENATE(SUM(N5,-2),"-",SUM(N5,2))</f>
+        <f t="shared" ref="O5" si="17">CONCATENATE(SUM(N5,-2),"-",SUM(N5,2))</f>
         <v>23-27</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5" ca="1" si="18">CONCATENATE(SUM(P5,-2),"-",SUM(P5,2))</f>
+        <v>34-38</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>40</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5" ca="1" si="19">CONCATENATE(SUM(R5,-2),"-",SUM(R5,2))</f>
+        <v>38-42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -653,47 +685,55 @@
         <v>21</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:I6" si="14">CONCATENATE(SUM(F6,-2),"-",SUM(F6,2))</f>
+        <f t="shared" ref="G6:I6" si="20">CONCATENATE(SUM(F6,-2),"-",SUM(F6,2))</f>
         <v>19-23</v>
       </c>
       <c r="H6">
         <v>11</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9-13</v>
       </c>
       <c r="J6">
         <v>17</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6" si="15">CONCATENATE(SUM(J6,-2),"-",SUM(J6,2))</f>
+        <f t="shared" ref="K6" si="21">CONCATENATE(SUM(J6,-2),"-",SUM(J6,2))</f>
         <v>15-19</v>
       </c>
       <c r="L6">
         <v>31</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6" si="16">CONCATENATE(SUM(L6,-2),"-",SUM(L6,2))</f>
+        <f t="shared" ref="M6" si="22">CONCATENATE(SUM(L6,-2),"-",SUM(L6,2))</f>
         <v>29-33</v>
       </c>
       <c r="N6">
         <v>25</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ref="O6" si="17">CONCATENATE(SUM(N6,-2),"-",SUM(N6,2))</f>
+        <f t="shared" ref="O6" si="23">CONCATENATE(SUM(N6,-2),"-",SUM(N6,2))</f>
         <v>23-27</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6" ca="1" si="24">CONCATENATE(SUM(P6,-2),"-",SUM(P6,2))</f>
+        <v>18-22</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" ref="S6" ca="1" si="25">CONCATENATE(SUM(R6,-2),"-",SUM(R6,2))</f>
+        <v>36-40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -715,47 +755,55 @@
         <v>21</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:I7" si="18">CONCATENATE(SUM(F7,-2),"-",SUM(F7,2))</f>
+        <f t="shared" ref="G7:I7" si="26">CONCATENATE(SUM(F7,-2),"-",SUM(F7,2))</f>
         <v>19-23</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-13</v>
       </c>
       <c r="J7">
         <v>17</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7" si="19">CONCATENATE(SUM(J7,-2),"-",SUM(J7,2))</f>
+        <f t="shared" ref="K7" si="27">CONCATENATE(SUM(J7,-2),"-",SUM(J7,2))</f>
         <v>15-19</v>
       </c>
       <c r="L7">
         <v>31</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M7" si="20">CONCATENATE(SUM(L7,-2),"-",SUM(L7,2))</f>
+        <f t="shared" ref="M7" si="28">CONCATENATE(SUM(L7,-2),"-",SUM(L7,2))</f>
         <v>29-33</v>
       </c>
       <c r="N7">
         <v>25</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ref="O7" si="21">CONCATENATE(SUM(N7,-2),"-",SUM(N7,2))</f>
+        <f t="shared" ref="O7" si="29">CONCATENATE(SUM(N7,-2),"-",SUM(N7,2))</f>
         <v>23-27</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7" ca="1" si="30">CONCATENATE(SUM(P7,-2),"-",SUM(P7,2))</f>
+        <v>35-39</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>22</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" ref="S7" ca="1" si="31">CONCATENATE(SUM(R7,-2),"-",SUM(R7,2))</f>
+        <v>20-24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -777,47 +825,55 @@
         <v>21</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:I8" si="22">CONCATENATE(SUM(F8,-2),"-",SUM(F8,2))</f>
+        <f t="shared" ref="G8:I8" si="32">CONCATENATE(SUM(F8,-2),"-",SUM(F8,2))</f>
         <v>19-23</v>
       </c>
       <c r="H8">
         <v>11</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>9-13</v>
       </c>
       <c r="J8">
         <v>17</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ref="K8" si="23">CONCATENATE(SUM(J8,-2),"-",SUM(J8,2))</f>
+        <f t="shared" ref="K8" si="33">CONCATENATE(SUM(J8,-2),"-",SUM(J8,2))</f>
         <v>15-19</v>
       </c>
       <c r="L8">
         <v>31</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ref="M8" si="24">CONCATENATE(SUM(L8,-2),"-",SUM(L8,2))</f>
+        <f t="shared" ref="M8" si="34">CONCATENATE(SUM(L8,-2),"-",SUM(L8,2))</f>
         <v>29-33</v>
       </c>
       <c r="N8">
         <v>25</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8" si="25">CONCATENATE(SUM(N8,-2),"-",SUM(N8,2))</f>
+        <f t="shared" ref="O8" si="35">CONCATENATE(SUM(N8,-2),"-",SUM(N8,2))</f>
         <v>23-27</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ref="Q8" ca="1" si="36">CONCATENATE(SUM(P8,-2),"-",SUM(P8,2))</f>
+        <v>30-34</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" ref="S8" ca="1" si="37">CONCATENATE(SUM(R8,-2),"-",SUM(R8,2))</f>
+        <v>6-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -839,47 +895,55 @@
         <v>21</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:I9" si="26">CONCATENATE(SUM(F9,-2),"-",SUM(F9,2))</f>
+        <f t="shared" ref="G9:I9" si="38">CONCATENATE(SUM(F9,-2),"-",SUM(F9,2))</f>
         <v>19-23</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9-13</v>
       </c>
       <c r="J9">
         <v>17</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9" si="27">CONCATENATE(SUM(J9,-2),"-",SUM(J9,2))</f>
+        <f t="shared" ref="K9" si="39">CONCATENATE(SUM(J9,-2),"-",SUM(J9,2))</f>
         <v>15-19</v>
       </c>
       <c r="L9">
         <v>31</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ref="M9" si="28">CONCATENATE(SUM(L9,-2),"-",SUM(L9,2))</f>
+        <f t="shared" ref="M9" si="40">CONCATENATE(SUM(L9,-2),"-",SUM(L9,2))</f>
         <v>29-33</v>
       </c>
       <c r="N9">
         <v>25</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" ref="O9" si="29">CONCATENATE(SUM(N9,-2),"-",SUM(N9,2))</f>
+        <f t="shared" ref="O9" si="41">CONCATENATE(SUM(N9,-2),"-",SUM(N9,2))</f>
         <v>23-27</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ref="Q9" ca="1" si="42">CONCATENATE(SUM(P9,-2),"-",SUM(P9,2))</f>
+        <v>37-41</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>14</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" ref="S9" ca="1" si="43">CONCATENATE(SUM(R9,-2),"-",SUM(R9,2))</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -901,47 +965,55 @@
         <v>21</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:I10" si="30">CONCATENATE(SUM(F10,-2),"-",SUM(F10,2))</f>
+        <f t="shared" ref="G10:I10" si="44">CONCATENATE(SUM(F10,-2),"-",SUM(F10,2))</f>
         <v>19-23</v>
       </c>
       <c r="H10">
         <v>11</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>9-13</v>
       </c>
       <c r="J10">
         <v>17</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10" si="31">CONCATENATE(SUM(J10,-2),"-",SUM(J10,2))</f>
+        <f t="shared" ref="K10" si="45">CONCATENATE(SUM(J10,-2),"-",SUM(J10,2))</f>
         <v>15-19</v>
       </c>
       <c r="L10">
         <v>31</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ref="M10" si="32">CONCATENATE(SUM(L10,-2),"-",SUM(L10,2))</f>
+        <f t="shared" ref="M10" si="46">CONCATENATE(SUM(L10,-2),"-",SUM(L10,2))</f>
         <v>29-33</v>
       </c>
       <c r="N10">
         <v>25</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" ref="O10" si="33">CONCATENATE(SUM(N10,-2),"-",SUM(N10,2))</f>
+        <f t="shared" ref="O10" si="47">CONCATENATE(SUM(N10,-2),"-",SUM(N10,2))</f>
         <v>23-27</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10" ca="1" si="48">CONCATENATE(SUM(P10,-2),"-",SUM(P10,2))</f>
+        <v>27-31</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>17</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" ref="S10" ca="1" si="49">CONCATENATE(SUM(R10,-2),"-",SUM(R10,2))</f>
+        <v>15-19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -963,47 +1035,55 @@
         <v>21</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:I11" si="34">CONCATENATE(SUM(F11,-2),"-",SUM(F11,2))</f>
+        <f t="shared" ref="G11:I11" si="50">CONCATENATE(SUM(F11,-2),"-",SUM(F11,2))</f>
         <v>19-23</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>9-13</v>
       </c>
       <c r="J11">
         <v>17</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11" si="35">CONCATENATE(SUM(J11,-2),"-",SUM(J11,2))</f>
+        <f t="shared" ref="K11" si="51">CONCATENATE(SUM(J11,-2),"-",SUM(J11,2))</f>
         <v>15-19</v>
       </c>
       <c r="L11">
         <v>31</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ref="M11" si="36">CONCATENATE(SUM(L11,-2),"-",SUM(L11,2))</f>
+        <f t="shared" ref="M11" si="52">CONCATENATE(SUM(L11,-2),"-",SUM(L11,2))</f>
         <v>29-33</v>
       </c>
       <c r="N11">
         <v>25</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" ref="O11" si="37">CONCATENATE(SUM(N11,-2),"-",SUM(N11,2))</f>
+        <f t="shared" ref="O11" si="53">CONCATENATE(SUM(N11,-2),"-",SUM(N11,2))</f>
         <v>23-27</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ref="Q11" ca="1" si="54">CONCATENATE(SUM(P11,-2),"-",SUM(P11,2))</f>
+        <v>13-17</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>36</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" ref="S11" ca="1" si="55">CONCATENATE(SUM(R11,-2),"-",SUM(R11,2))</f>
+        <v>34-38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1025,47 +1105,55 @@
         <v>21</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ref="G12:I12" si="38">CONCATENATE(SUM(F12,-2),"-",SUM(F12,2))</f>
+        <f t="shared" ref="G12:I12" si="56">CONCATENATE(SUM(F12,-2),"-",SUM(F12,2))</f>
         <v>19-23</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>9-13</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" ref="K12" si="39">CONCATENATE(SUM(J12,-2),"-",SUM(J12,2))</f>
+        <f t="shared" ref="K12" si="57">CONCATENATE(SUM(J12,-2),"-",SUM(J12,2))</f>
         <v>15-19</v>
       </c>
       <c r="L12">
         <v>31</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12" si="40">CONCATENATE(SUM(L12,-2),"-",SUM(L12,2))</f>
+        <f t="shared" ref="M12" si="58">CONCATENATE(SUM(L12,-2),"-",SUM(L12,2))</f>
         <v>29-33</v>
       </c>
       <c r="N12">
         <v>25</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" ref="O12" si="41">CONCATENATE(SUM(N12,-2),"-",SUM(N12,2))</f>
+        <f t="shared" ref="O12" si="59">CONCATENATE(SUM(N12,-2),"-",SUM(N12,2))</f>
         <v>23-27</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12" ca="1" si="60">CONCATENATE(SUM(P12,-2),"-",SUM(P12,2))</f>
+        <v>11-15</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="5"/>
         <v>37</v>
       </c>
-      <c r="R12">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="str">
+        <f t="shared" ref="S12" ca="1" si="61">CONCATENATE(SUM(R12,-2),"-",SUM(R12,2))</f>
+        <v>35-39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1087,47 +1175,55 @@
         <v>21</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:I13" si="42">CONCATENATE(SUM(F13,-2),"-",SUM(F13,2))</f>
+        <f t="shared" ref="G13:I13" si="62">CONCATENATE(SUM(F13,-2),"-",SUM(F13,2))</f>
         <v>19-23</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>9-13</v>
       </c>
       <c r="J13">
         <v>17</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" ref="K13" si="43">CONCATENATE(SUM(J13,-2),"-",SUM(J13,2))</f>
+        <f t="shared" ref="K13" si="63">CONCATENATE(SUM(J13,-2),"-",SUM(J13,2))</f>
         <v>15-19</v>
       </c>
       <c r="L13">
         <v>31</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13" si="44">CONCATENATE(SUM(L13,-2),"-",SUM(L13,2))</f>
+        <f t="shared" ref="M13" si="64">CONCATENATE(SUM(L13,-2),"-",SUM(L13,2))</f>
         <v>29-33</v>
       </c>
       <c r="N13">
         <v>25</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" ref="O13" si="45">CONCATENATE(SUM(N13,-2),"-",SUM(N13,2))</f>
+        <f t="shared" ref="O13" si="65">CONCATENATE(SUM(N13,-2),"-",SUM(N13,2))</f>
         <v>23-27</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ref="Q13" ca="1" si="66">CONCATENATE(SUM(P13,-2),"-",SUM(P13,2))</f>
+        <v>3-7</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" ref="S13" ca="1" si="67">CONCATENATE(SUM(R13,-2),"-",SUM(R13,2))</f>
+        <v>7-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1149,47 +1245,55 @@
         <v>21</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:I14" si="46">CONCATENATE(SUM(F14,-2),"-",SUM(F14,2))</f>
+        <f t="shared" ref="G14:I14" si="68">CONCATENATE(SUM(F14,-2),"-",SUM(F14,2))</f>
         <v>19-23</v>
       </c>
       <c r="H14">
         <v>11</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="68"/>
         <v>9-13</v>
       </c>
       <c r="J14">
         <v>17</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14" si="47">CONCATENATE(SUM(J14,-2),"-",SUM(J14,2))</f>
+        <f t="shared" ref="K14" si="69">CONCATENATE(SUM(J14,-2),"-",SUM(J14,2))</f>
         <v>15-19</v>
       </c>
       <c r="L14">
         <v>31</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14" si="48">CONCATENATE(SUM(L14,-2),"-",SUM(L14,2))</f>
+        <f t="shared" ref="M14" si="70">CONCATENATE(SUM(L14,-2),"-",SUM(L14,2))</f>
         <v>29-33</v>
       </c>
       <c r="N14">
         <v>25</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" ref="O14" si="49">CONCATENATE(SUM(N14,-2),"-",SUM(N14,2))</f>
+        <f t="shared" ref="O14" si="71">CONCATENATE(SUM(N14,-2),"-",SUM(N14,2))</f>
         <v>23-27</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ref="Q14" ca="1" si="72">CONCATENATE(SUM(P14,-2),"-",SUM(P14,2))</f>
+        <v>5-9</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" ref="S14" ca="1" si="73">CONCATENATE(SUM(R14,-2),"-",SUM(R14,2))</f>
+        <v>0-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1211,47 +1315,55 @@
         <v>21</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15:I15" si="50">CONCATENATE(SUM(F15,-2),"-",SUM(F15,2))</f>
+        <f t="shared" ref="G15:I15" si="74">CONCATENATE(SUM(F15,-2),"-",SUM(F15,2))</f>
         <v>19-23</v>
       </c>
       <c r="H15">
         <v>11</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="74"/>
         <v>9-13</v>
       </c>
       <c r="J15">
         <v>17</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15" si="51">CONCATENATE(SUM(J15,-2),"-",SUM(J15,2))</f>
+        <f t="shared" ref="K15" si="75">CONCATENATE(SUM(J15,-2),"-",SUM(J15,2))</f>
         <v>15-19</v>
       </c>
       <c r="L15">
         <v>31</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ref="M15" si="52">CONCATENATE(SUM(L15,-2),"-",SUM(L15,2))</f>
+        <f t="shared" ref="M15" si="76">CONCATENATE(SUM(L15,-2),"-",SUM(L15,2))</f>
         <v>29-33</v>
       </c>
       <c r="N15">
         <v>25</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" ref="O15" si="53">CONCATENATE(SUM(N15,-2),"-",SUM(N15,2))</f>
+        <f t="shared" ref="O15" si="77">CONCATENATE(SUM(N15,-2),"-",SUM(N15,2))</f>
         <v>23-27</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ref="Q15" ca="1" si="78">CONCATENATE(SUM(P15,-2),"-",SUM(P15,2))</f>
+        <v>32-36</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>24</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" ref="S15" ca="1" si="79">CONCATENATE(SUM(R15,-2),"-",SUM(R15,2))</f>
+        <v>22-26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1273,47 +1385,55 @@
         <v>21</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ref="G16:I16" si="54">CONCATENATE(SUM(F16,-2),"-",SUM(F16,2))</f>
+        <f t="shared" ref="G16:I16" si="80">CONCATENATE(SUM(F16,-2),"-",SUM(F16,2))</f>
         <v>19-23</v>
       </c>
       <c r="H16">
         <v>11</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>9-13</v>
       </c>
       <c r="J16">
         <v>17</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16" si="55">CONCATENATE(SUM(J16,-2),"-",SUM(J16,2))</f>
+        <f t="shared" ref="K16" si="81">CONCATENATE(SUM(J16,-2),"-",SUM(J16,2))</f>
         <v>15-19</v>
       </c>
       <c r="L16">
         <v>31</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ref="M16" si="56">CONCATENATE(SUM(L16,-2),"-",SUM(L16,2))</f>
+        <f t="shared" ref="M16" si="82">CONCATENATE(SUM(L16,-2),"-",SUM(L16,2))</f>
         <v>29-33</v>
       </c>
       <c r="N16">
         <v>25</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" ref="O16" si="57">CONCATENATE(SUM(N16,-2),"-",SUM(N16,2))</f>
+        <f t="shared" ref="O16" si="83">CONCATENATE(SUM(N16,-2),"-",SUM(N16,2))</f>
         <v>23-27</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q16" ca="1" si="84">CONCATENATE(SUM(P16,-2),"-",SUM(P16,2))</f>
+        <v>12-16</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" ref="S16" ca="1" si="85">CONCATENATE(SUM(R16,-2),"-",SUM(R16,2))</f>
+        <v>6-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1335,47 +1455,55 @@
         <v>21</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17:I17" si="58">CONCATENATE(SUM(F17,-2),"-",SUM(F17,2))</f>
+        <f t="shared" ref="G17:I17" si="86">CONCATENATE(SUM(F17,-2),"-",SUM(F17,2))</f>
         <v>19-23</v>
       </c>
       <c r="H17">
         <v>11</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>9-13</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17" si="59">CONCATENATE(SUM(J17,-2),"-",SUM(J17,2))</f>
+        <f t="shared" ref="K17" si="87">CONCATENATE(SUM(J17,-2),"-",SUM(J17,2))</f>
         <v>15-19</v>
       </c>
       <c r="L17">
         <v>31</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ref="M17" si="60">CONCATENATE(SUM(L17,-2),"-",SUM(L17,2))</f>
+        <f t="shared" ref="M17" si="88">CONCATENATE(SUM(L17,-2),"-",SUM(L17,2))</f>
         <v>29-33</v>
       </c>
       <c r="N17">
         <v>25</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" ref="O17" si="61">CONCATENATE(SUM(N17,-2),"-",SUM(N17,2))</f>
+        <f t="shared" ref="O17" si="89">CONCATENATE(SUM(N17,-2),"-",SUM(N17,2))</f>
         <v>23-27</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17" ca="1" si="90">CONCATENATE(SUM(P17,-2),"-",SUM(P17,2))</f>
+        <v>27-31</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>33</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" ref="S17" ca="1" si="91">CONCATENATE(SUM(R17,-2),"-",SUM(R17,2))</f>
+        <v>31-35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1397,47 +1525,55 @@
         <v>21</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:I18" si="62">CONCATENATE(SUM(F18,-2),"-",SUM(F18,2))</f>
+        <f t="shared" ref="G18:I18" si="92">CONCATENATE(SUM(F18,-2),"-",SUM(F18,2))</f>
         <v>19-23</v>
       </c>
       <c r="H18">
         <v>11</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>9-13</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18" si="63">CONCATENATE(SUM(J18,-2),"-",SUM(J18,2))</f>
+        <f t="shared" ref="K18" si="93">CONCATENATE(SUM(J18,-2),"-",SUM(J18,2))</f>
         <v>15-19</v>
       </c>
       <c r="L18">
         <v>31</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ref="M18" si="64">CONCATENATE(SUM(L18,-2),"-",SUM(L18,2))</f>
+        <f t="shared" ref="M18" si="94">CONCATENATE(SUM(L18,-2),"-",SUM(L18,2))</f>
         <v>29-33</v>
       </c>
       <c r="N18">
         <v>25</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ref="O18" si="65">CONCATENATE(SUM(N18,-2),"-",SUM(N18,2))</f>
+        <f t="shared" ref="O18" si="95">CONCATENATE(SUM(N18,-2),"-",SUM(N18,2))</f>
         <v>23-27</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18" ca="1" si="96">CONCATENATE(SUM(P18,-2),"-",SUM(P18,2))</f>
+        <v>18-22</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>36</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ref="S18" ca="1" si="97">CONCATENATE(SUM(R18,-2),"-",SUM(R18,2))</f>
+        <v>34-38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1459,47 +1595,55 @@
         <v>21</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:I19" si="66">CONCATENATE(SUM(F19,-2),"-",SUM(F19,2))</f>
+        <f t="shared" ref="G19:I19" si="98">CONCATENATE(SUM(F19,-2),"-",SUM(F19,2))</f>
         <v>19-23</v>
       </c>
       <c r="H19">
         <v>11</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>9-13</v>
       </c>
       <c r="J19">
         <v>17</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19" si="67">CONCATENATE(SUM(J19,-2),"-",SUM(J19,2))</f>
+        <f t="shared" ref="K19" si="99">CONCATENATE(SUM(J19,-2),"-",SUM(J19,2))</f>
         <v>15-19</v>
       </c>
       <c r="L19">
         <v>31</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19" si="68">CONCATENATE(SUM(L19,-2),"-",SUM(L19,2))</f>
+        <f t="shared" ref="M19" si="100">CONCATENATE(SUM(L19,-2),"-",SUM(L19,2))</f>
         <v>29-33</v>
       </c>
       <c r="N19">
         <v>25</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" ref="O19" si="69">CONCATENATE(SUM(N19,-2),"-",SUM(N19,2))</f>
+        <f t="shared" ref="O19" si="101">CONCATENATE(SUM(N19,-2),"-",SUM(N19,2))</f>
         <v>23-27</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ref="Q19" ca="1" si="102">CONCATENATE(SUM(P19,-2),"-",SUM(P19,2))</f>
+        <v>27-31</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" ref="S19" ca="1" si="103">CONCATENATE(SUM(R19,-2),"-",SUM(R19,2))</f>
+        <v>23-27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1521,47 +1665,55 @@
         <v>21</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ref="G20:I20" si="70">CONCATENATE(SUM(F20,-2),"-",SUM(F20,2))</f>
+        <f t="shared" ref="G20:I20" si="104">CONCATENATE(SUM(F20,-2),"-",SUM(F20,2))</f>
         <v>19-23</v>
       </c>
       <c r="H20">
         <v>11</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="104"/>
         <v>9-13</v>
       </c>
       <c r="J20">
         <v>17</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20" si="71">CONCATENATE(SUM(J20,-2),"-",SUM(J20,2))</f>
+        <f t="shared" ref="K20" si="105">CONCATENATE(SUM(J20,-2),"-",SUM(J20,2))</f>
         <v>15-19</v>
       </c>
       <c r="L20">
         <v>31</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ref="M20" si="72">CONCATENATE(SUM(L20,-2),"-",SUM(L20,2))</f>
+        <f t="shared" ref="M20" si="106">CONCATENATE(SUM(L20,-2),"-",SUM(L20,2))</f>
         <v>29-33</v>
       </c>
       <c r="N20">
         <v>25</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" ref="O20" si="73">CONCATENATE(SUM(N20,-2),"-",SUM(N20,2))</f>
+        <f t="shared" ref="O20" si="107">CONCATENATE(SUM(N20,-2),"-",SUM(N20,2))</f>
         <v>23-27</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ref="Q20" ca="1" si="108">CONCATENATE(SUM(P20,-2),"-",SUM(P20,2))</f>
+        <v>2-6</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" ref="S20" ca="1" si="109">CONCATENATE(SUM(R20,-2),"-",SUM(R20,2))</f>
+        <v>27-31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1583,47 +1735,55 @@
         <v>21</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ref="G21:I21" si="74">CONCATENATE(SUM(F21,-2),"-",SUM(F21,2))</f>
+        <f t="shared" ref="G21:I21" si="110">CONCATENATE(SUM(F21,-2),"-",SUM(F21,2))</f>
         <v>19-23</v>
       </c>
       <c r="H21">
         <v>11</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>9-13</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ref="K21" si="75">CONCATENATE(SUM(J21,-2),"-",SUM(J21,2))</f>
+        <f t="shared" ref="K21" si="111">CONCATENATE(SUM(J21,-2),"-",SUM(J21,2))</f>
         <v>15-19</v>
       </c>
       <c r="L21">
         <v>31</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ref="M21" si="76">CONCATENATE(SUM(L21,-2),"-",SUM(L21,2))</f>
+        <f t="shared" ref="M21" si="112">CONCATENATE(SUM(L21,-2),"-",SUM(L21,2))</f>
         <v>29-33</v>
       </c>
       <c r="N21">
         <v>25</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" ref="O21" si="77">CONCATENATE(SUM(N21,-2),"-",SUM(N21,2))</f>
+        <f t="shared" ref="O21" si="113">CONCATENATE(SUM(N21,-2),"-",SUM(N21,2))</f>
         <v>23-27</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ref="Q21" ca="1" si="114">CONCATENATE(SUM(P21,-2),"-",SUM(P21,2))</f>
+        <v>6-10</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" ref="S21" ca="1" si="115">CONCATENATE(SUM(R21,-2),"-",SUM(R21,2))</f>
+        <v>27-31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1645,47 +1805,55 @@
         <v>21</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:I22" si="78">CONCATENATE(SUM(F22,-2),"-",SUM(F22,2))</f>
+        <f t="shared" ref="G22:I22" si="116">CONCATENATE(SUM(F22,-2),"-",SUM(F22,2))</f>
         <v>19-23</v>
       </c>
       <c r="H22">
         <v>11</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="116"/>
         <v>9-13</v>
       </c>
       <c r="J22">
         <v>17</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ref="K22" si="79">CONCATENATE(SUM(J22,-2),"-",SUM(J22,2))</f>
+        <f t="shared" ref="K22" si="117">CONCATENATE(SUM(J22,-2),"-",SUM(J22,2))</f>
         <v>15-19</v>
       </c>
       <c r="L22">
         <v>31</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22" si="80">CONCATENATE(SUM(L22,-2),"-",SUM(L22,2))</f>
+        <f t="shared" ref="M22" si="118">CONCATENATE(SUM(L22,-2),"-",SUM(L22,2))</f>
         <v>29-33</v>
       </c>
       <c r="N22">
         <v>25</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ref="O22" si="81">CONCATENATE(SUM(N22,-2),"-",SUM(N22,2))</f>
+        <f t="shared" ref="O22" si="119">CONCATENATE(SUM(N22,-2),"-",SUM(N22,2))</f>
         <v>23-27</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22" ca="1" si="120">CONCATENATE(SUM(P22,-2),"-",SUM(P22,2))</f>
+        <v>38-42</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" ref="S22" ca="1" si="121">CONCATENATE(SUM(R22,-2),"-",SUM(R22,2))</f>
+        <v>35-39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1707,47 +1875,55 @@
         <v>21</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23:I23" si="82">CONCATENATE(SUM(F23,-2),"-",SUM(F23,2))</f>
+        <f t="shared" ref="G23:I23" si="122">CONCATENATE(SUM(F23,-2),"-",SUM(F23,2))</f>
         <v>19-23</v>
       </c>
       <c r="H23">
         <v>11</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="122"/>
         <v>9-13</v>
       </c>
       <c r="J23">
         <v>17</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" ref="K23" si="83">CONCATENATE(SUM(J23,-2),"-",SUM(J23,2))</f>
+        <f t="shared" ref="K23" si="123">CONCATENATE(SUM(J23,-2),"-",SUM(J23,2))</f>
         <v>15-19</v>
       </c>
       <c r="L23">
         <v>31</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ref="M23" si="84">CONCATENATE(SUM(L23,-2),"-",SUM(L23,2))</f>
+        <f t="shared" ref="M23" si="124">CONCATENATE(SUM(L23,-2),"-",SUM(L23,2))</f>
         <v>29-33</v>
       </c>
       <c r="N23">
         <v>25</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" ref="O23" si="85">CONCATENATE(SUM(N23,-2),"-",SUM(N23,2))</f>
+        <f t="shared" ref="O23" si="125">CONCATENATE(SUM(N23,-2),"-",SUM(N23,2))</f>
         <v>23-27</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ref="Q23" ca="1" si="126">CONCATENATE(SUM(P23,-2),"-",SUM(P23,2))</f>
+        <v>15-19</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="str">
+        <f t="shared" ref="S23" ca="1" si="127">CONCATENATE(SUM(R23,-2),"-",SUM(R23,2))</f>
+        <v>21-25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1769,47 +1945,55 @@
         <v>21</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24:I24" si="86">CONCATENATE(SUM(F24,-2),"-",SUM(F24,2))</f>
+        <f t="shared" ref="G24:I24" si="128">CONCATENATE(SUM(F24,-2),"-",SUM(F24,2))</f>
         <v>19-23</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="128"/>
         <v>9-13</v>
       </c>
       <c r="J24">
         <v>17</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24" si="87">CONCATENATE(SUM(J24,-2),"-",SUM(J24,2))</f>
+        <f t="shared" ref="K24" si="129">CONCATENATE(SUM(J24,-2),"-",SUM(J24,2))</f>
         <v>15-19</v>
       </c>
       <c r="L24">
         <v>31</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ref="M24" si="88">CONCATENATE(SUM(L24,-2),"-",SUM(L24,2))</f>
+        <f t="shared" ref="M24" si="130">CONCATENATE(SUM(L24,-2),"-",SUM(L24,2))</f>
         <v>29-33</v>
       </c>
       <c r="N24">
         <v>25</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" ref="O24" si="89">CONCATENATE(SUM(N24,-2),"-",SUM(N24,2))</f>
+        <f t="shared" ref="O24" si="131">CONCATENATE(SUM(N24,-2),"-",SUM(N24,2))</f>
         <v>23-27</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ref="Q24" ca="1" si="132">CONCATENATE(SUM(P24,-2),"-",SUM(P24,2))</f>
+        <v>14-18</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" ref="S24" ca="1" si="133">CONCATENATE(SUM(R24,-2),"-",SUM(R24,2))</f>
+        <v>2-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1831,47 +2015,55 @@
         <v>21</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25:I25" si="90">CONCATENATE(SUM(F25,-2),"-",SUM(F25,2))</f>
+        <f t="shared" ref="G25:I25" si="134">CONCATENATE(SUM(F25,-2),"-",SUM(F25,2))</f>
         <v>19-23</v>
       </c>
       <c r="H25">
         <v>11</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="134"/>
         <v>9-13</v>
       </c>
       <c r="J25">
         <v>17</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25" si="91">CONCATENATE(SUM(J25,-2),"-",SUM(J25,2))</f>
+        <f t="shared" ref="K25" si="135">CONCATENATE(SUM(J25,-2),"-",SUM(J25,2))</f>
         <v>15-19</v>
       </c>
       <c r="L25">
         <v>31</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ref="M25" si="92">CONCATENATE(SUM(L25,-2),"-",SUM(L25,2))</f>
+        <f t="shared" ref="M25" si="136">CONCATENATE(SUM(L25,-2),"-",SUM(L25,2))</f>
         <v>29-33</v>
       </c>
       <c r="N25">
         <v>25</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" ref="O25" si="93">CONCATENATE(SUM(N25,-2),"-",SUM(N25,2))</f>
+        <f t="shared" ref="O25" si="137">CONCATENATE(SUM(N25,-2),"-",SUM(N25,2))</f>
         <v>23-27</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25" ca="1" si="138">CONCATENATE(SUM(P25,-2),"-",SUM(P25,2))</f>
+        <v>8-12</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>36</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" ref="S25" ca="1" si="139">CONCATENATE(SUM(R25,-2),"-",SUM(R25,2))</f>
+        <v>34-38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1893,47 +2085,55 @@
         <v>21</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ref="G26:I26" si="94">CONCATENATE(SUM(F26,-2),"-",SUM(F26,2))</f>
+        <f t="shared" ref="G26:I26" si="140">CONCATENATE(SUM(F26,-2),"-",SUM(F26,2))</f>
         <v>19-23</v>
       </c>
       <c r="H26">
         <v>11</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="140"/>
         <v>9-13</v>
       </c>
       <c r="J26">
         <v>17</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K26" si="95">CONCATENATE(SUM(J26,-2),"-",SUM(J26,2))</f>
+        <f t="shared" ref="K26" si="141">CONCATENATE(SUM(J26,-2),"-",SUM(J26,2))</f>
         <v>15-19</v>
       </c>
       <c r="L26">
         <v>31</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26" si="96">CONCATENATE(SUM(L26,-2),"-",SUM(L26,2))</f>
+        <f t="shared" ref="M26" si="142">CONCATENATE(SUM(L26,-2),"-",SUM(L26,2))</f>
         <v>29-33</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" ref="O26" si="97">CONCATENATE(SUM(N26,-2),"-",SUM(N26,2))</f>
+        <f t="shared" ref="O26" si="143">CONCATENATE(SUM(N26,-2),"-",SUM(N26,2))</f>
         <v>23-27</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26" ca="1" si="144">CONCATENATE(SUM(P26,-2),"-",SUM(P26,2))</f>
+        <v>22-26</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" ref="S26" ca="1" si="145">CONCATENATE(SUM(R26,-2),"-",SUM(R26,2))</f>
+        <v>0-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1955,47 +2155,55 @@
         <v>21</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27:I27" si="98">CONCATENATE(SUM(F27,-2),"-",SUM(F27,2))</f>
+        <f t="shared" ref="G27:I27" si="146">CONCATENATE(SUM(F27,-2),"-",SUM(F27,2))</f>
         <v>19-23</v>
       </c>
       <c r="H27">
         <v>11</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="146"/>
         <v>9-13</v>
       </c>
       <c r="J27">
         <v>17</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" ref="K27" si="99">CONCATENATE(SUM(J27,-2),"-",SUM(J27,2))</f>
+        <f t="shared" ref="K27" si="147">CONCATENATE(SUM(J27,-2),"-",SUM(J27,2))</f>
         <v>15-19</v>
       </c>
       <c r="L27">
         <v>31</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ref="M27" si="100">CONCATENATE(SUM(L27,-2),"-",SUM(L27,2))</f>
+        <f t="shared" ref="M27" si="148">CONCATENATE(SUM(L27,-2),"-",SUM(L27,2))</f>
         <v>29-33</v>
       </c>
       <c r="N27">
         <v>25</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" ref="O27" si="101">CONCATENATE(SUM(N27,-2),"-",SUM(N27,2))</f>
+        <f t="shared" ref="O27" si="149">CONCATENATE(SUM(N27,-2),"-",SUM(N27,2))</f>
         <v>23-27</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ref="Q27" ca="1" si="150">CONCATENATE(SUM(P27,-2),"-",SUM(P27,2))</f>
+        <v>24-28</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" ref="S27" ca="1" si="151">CONCATENATE(SUM(R27,-2),"-",SUM(R27,2))</f>
+        <v>35-39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2017,47 +2225,55 @@
         <v>21</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28:I28" si="102">CONCATENATE(SUM(F28,-2),"-",SUM(F28,2))</f>
+        <f t="shared" ref="G28:I28" si="152">CONCATENATE(SUM(F28,-2),"-",SUM(F28,2))</f>
         <v>19-23</v>
       </c>
       <c r="H28">
         <v>11</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="152"/>
         <v>9-13</v>
       </c>
       <c r="J28">
         <v>17</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" ref="K28" si="103">CONCATENATE(SUM(J28,-2),"-",SUM(J28,2))</f>
+        <f t="shared" ref="K28" si="153">CONCATENATE(SUM(J28,-2),"-",SUM(J28,2))</f>
         <v>15-19</v>
       </c>
       <c r="L28">
         <v>31</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ref="M28" si="104">CONCATENATE(SUM(L28,-2),"-",SUM(L28,2))</f>
+        <f t="shared" ref="M28" si="154">CONCATENATE(SUM(L28,-2),"-",SUM(L28,2))</f>
         <v>29-33</v>
       </c>
       <c r="N28">
         <v>25</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" ref="O28" si="105">CONCATENATE(SUM(N28,-2),"-",SUM(N28,2))</f>
+        <f t="shared" ref="O28" si="155">CONCATENATE(SUM(N28,-2),"-",SUM(N28,2))</f>
         <v>23-27</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ref="Q28" ca="1" si="156">CONCATENATE(SUM(P28,-2),"-",SUM(P28,2))</f>
+        <v>34-38</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>27</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" ref="S28" ca="1" si="157">CONCATENATE(SUM(R28,-2),"-",SUM(R28,2))</f>
+        <v>25-29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2079,47 +2295,55 @@
         <v>21</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:I29" si="106">CONCATENATE(SUM(F29,-2),"-",SUM(F29,2))</f>
+        <f t="shared" ref="G29:I29" si="158">CONCATENATE(SUM(F29,-2),"-",SUM(F29,2))</f>
         <v>19-23</v>
       </c>
       <c r="H29">
         <v>11</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>9-13</v>
       </c>
       <c r="J29">
         <v>17</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ref="K29" si="107">CONCATENATE(SUM(J29,-2),"-",SUM(J29,2))</f>
+        <f t="shared" ref="K29" si="159">CONCATENATE(SUM(J29,-2),"-",SUM(J29,2))</f>
         <v>15-19</v>
       </c>
       <c r="L29">
         <v>31</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ref="M29" si="108">CONCATENATE(SUM(L29,-2),"-",SUM(L29,2))</f>
+        <f t="shared" ref="M29" si="160">CONCATENATE(SUM(L29,-2),"-",SUM(L29,2))</f>
         <v>29-33</v>
       </c>
       <c r="N29">
         <v>25</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" ref="O29" si="109">CONCATENATE(SUM(N29,-2),"-",SUM(N29,2))</f>
+        <f t="shared" ref="O29" si="161">CONCATENATE(SUM(N29,-2),"-",SUM(N29,2))</f>
         <v>23-27</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29" ca="1" si="162">CONCATENATE(SUM(P29,-2),"-",SUM(P29,2))</f>
+        <v>7-11</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>13</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" ref="S29" ca="1" si="163">CONCATENATE(SUM(R29,-2),"-",SUM(R29,2))</f>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2141,47 +2365,55 @@
         <v>21</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ref="G30:I30" si="110">CONCATENATE(SUM(F30,-2),"-",SUM(F30,2))</f>
+        <f t="shared" ref="G30:I30" si="164">CONCATENATE(SUM(F30,-2),"-",SUM(F30,2))</f>
         <v>19-23</v>
       </c>
       <c r="H30">
         <v>11</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="164"/>
         <v>9-13</v>
       </c>
       <c r="J30">
         <v>17</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ref="K30" si="111">CONCATENATE(SUM(J30,-2),"-",SUM(J30,2))</f>
+        <f t="shared" ref="K30" si="165">CONCATENATE(SUM(J30,-2),"-",SUM(J30,2))</f>
         <v>15-19</v>
       </c>
       <c r="L30">
         <v>31</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ref="M30" si="112">CONCATENATE(SUM(L30,-2),"-",SUM(L30,2))</f>
+        <f t="shared" ref="M30" si="166">CONCATENATE(SUM(L30,-2),"-",SUM(L30,2))</f>
         <v>29-33</v>
       </c>
       <c r="N30">
         <v>25</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" ref="O30" si="113">CONCATENATE(SUM(N30,-2),"-",SUM(N30,2))</f>
+        <f t="shared" ref="O30" si="167">CONCATENATE(SUM(N30,-2),"-",SUM(N30,2))</f>
         <v>23-27</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30" ca="1" si="168">CONCATENATE(SUM(P30,-2),"-",SUM(P30,2))</f>
+        <v>2-6</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" ref="S30" ca="1" si="169">CONCATENATE(SUM(R30,-2),"-",SUM(R30,2))</f>
+        <v>23-27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2203,47 +2435,55 @@
         <v>21</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ref="G31:I31" si="114">CONCATENATE(SUM(F31,-2),"-",SUM(F31,2))</f>
+        <f t="shared" ref="G31:I31" si="170">CONCATENATE(SUM(F31,-2),"-",SUM(F31,2))</f>
         <v>19-23</v>
       </c>
       <c r="H31">
         <v>11</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="170"/>
         <v>9-13</v>
       </c>
       <c r="J31">
         <v>17</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" ref="K31" si="115">CONCATENATE(SUM(J31,-2),"-",SUM(J31,2))</f>
+        <f t="shared" ref="K31" si="171">CONCATENATE(SUM(J31,-2),"-",SUM(J31,2))</f>
         <v>15-19</v>
       </c>
       <c r="L31">
         <v>31</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ref="M31" si="116">CONCATENATE(SUM(L31,-2),"-",SUM(L31,2))</f>
+        <f t="shared" ref="M31" si="172">CONCATENATE(SUM(L31,-2),"-",SUM(L31,2))</f>
         <v>29-33</v>
       </c>
       <c r="N31">
         <v>25</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" ref="O31" si="117">CONCATENATE(SUM(N31,-2),"-",SUM(N31,2))</f>
+        <f t="shared" ref="O31" si="173">CONCATENATE(SUM(N31,-2),"-",SUM(N31,2))</f>
         <v>23-27</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ref="Q31" ca="1" si="174">CONCATENATE(SUM(P31,-2),"-",SUM(P31,2))</f>
+        <v>25-29</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" ref="S31" ca="1" si="175">CONCATENATE(SUM(R31,-2),"-",SUM(R31,2))</f>
+        <v>24-28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2265,47 +2505,55 @@
         <v>21</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ref="G32:I32" si="118">CONCATENATE(SUM(F32,-2),"-",SUM(F32,2))</f>
+        <f t="shared" ref="G32:I32" si="176">CONCATENATE(SUM(F32,-2),"-",SUM(F32,2))</f>
         <v>19-23</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="176"/>
         <v>29-33</v>
       </c>
       <c r="J32">
         <v>25</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32" si="119">CONCATENATE(SUM(J32,-2),"-",SUM(J32,2))</f>
+        <f t="shared" ref="K32" si="177">CONCATENATE(SUM(J32,-2),"-",SUM(J32,2))</f>
         <v>23-27</v>
       </c>
       <c r="L32">
         <v>11</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ref="M32" si="120">CONCATENATE(SUM(L32,-2),"-",SUM(L32,2))</f>
+        <f t="shared" ref="M32" si="178">CONCATENATE(SUM(L32,-2),"-",SUM(L32,2))</f>
         <v>9-13</v>
       </c>
       <c r="N32">
         <v>17</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" ref="O32" si="121">CONCATENATE(SUM(N32,-2),"-",SUM(N32,2))</f>
+        <f t="shared" ref="O32" si="179">CONCATENATE(SUM(N32,-2),"-",SUM(N32,2))</f>
         <v>15-19</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ref="Q32" ca="1" si="180">CONCATENATE(SUM(P32,-2),"-",SUM(P32,2))</f>
+        <v>29-33</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>23</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" ref="S32" ca="1" si="181">CONCATENATE(SUM(R32,-2),"-",SUM(R32,2))</f>
+        <v>21-25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2327,47 +2575,55 @@
         <v>21</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:I33" si="122">CONCATENATE(SUM(F33,-2),"-",SUM(F33,2))</f>
+        <f t="shared" ref="G33:I33" si="182">CONCATENATE(SUM(F33,-2),"-",SUM(F33,2))</f>
         <v>19-23</v>
       </c>
       <c r="H33">
         <v>31</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="182"/>
         <v>29-33</v>
       </c>
       <c r="J33">
         <v>25</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ref="K33" si="123">CONCATENATE(SUM(J33,-2),"-",SUM(J33,2))</f>
+        <f t="shared" ref="K33" si="183">CONCATENATE(SUM(J33,-2),"-",SUM(J33,2))</f>
         <v>23-27</v>
       </c>
       <c r="L33">
         <v>11</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ref="M33" si="124">CONCATENATE(SUM(L33,-2),"-",SUM(L33,2))</f>
+        <f t="shared" ref="M33" si="184">CONCATENATE(SUM(L33,-2),"-",SUM(L33,2))</f>
         <v>9-13</v>
       </c>
       <c r="N33">
         <v>17</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" ref="O33" si="125">CONCATENATE(SUM(N33,-2),"-",SUM(N33,2))</f>
+        <f t="shared" ref="O33" si="185">CONCATENATE(SUM(N33,-2),"-",SUM(N33,2))</f>
         <v>15-19</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ref="Q33" ca="1" si="186">CONCATENATE(SUM(P33,-2),"-",SUM(P33,2))</f>
+        <v>24-28</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" ref="S33" ca="1" si="187">CONCATENATE(SUM(R33,-2),"-",SUM(R33,2))</f>
+        <v>1-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2389,47 +2645,55 @@
         <v>21</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:I34" si="126">CONCATENATE(SUM(F34,-2),"-",SUM(F34,2))</f>
+        <f t="shared" ref="G34:I34" si="188">CONCATENATE(SUM(F34,-2),"-",SUM(F34,2))</f>
         <v>19-23</v>
       </c>
       <c r="H34">
         <v>31</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="188"/>
         <v>29-33</v>
       </c>
       <c r="J34">
         <v>25</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34" si="127">CONCATENATE(SUM(J34,-2),"-",SUM(J34,2))</f>
+        <f t="shared" ref="K34" si="189">CONCATENATE(SUM(J34,-2),"-",SUM(J34,2))</f>
         <v>23-27</v>
       </c>
       <c r="L34">
         <v>11</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34" si="128">CONCATENATE(SUM(L34,-2),"-",SUM(L34,2))</f>
+        <f t="shared" ref="M34" si="190">CONCATENATE(SUM(L34,-2),"-",SUM(L34,2))</f>
         <v>9-13</v>
       </c>
       <c r="N34">
         <v>17</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34" si="129">CONCATENATE(SUM(N34,-2),"-",SUM(N34,2))</f>
+        <f t="shared" ref="O34" si="191">CONCATENATE(SUM(N34,-2),"-",SUM(N34,2))</f>
         <v>15-19</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ref="Q34" ca="1" si="192">CONCATENATE(SUM(P34,-2),"-",SUM(P34,2))</f>
+        <v>29-33</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" ref="S34" ca="1" si="193">CONCATENATE(SUM(R34,-2),"-",SUM(R34,2))</f>
+        <v>7-11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2451,47 +2715,55 @@
         <v>21</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:I35" si="130">CONCATENATE(SUM(F35,-2),"-",SUM(F35,2))</f>
+        <f t="shared" ref="G35:I35" si="194">CONCATENATE(SUM(F35,-2),"-",SUM(F35,2))</f>
         <v>19-23</v>
       </c>
       <c r="H35">
         <v>31</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="194"/>
         <v>29-33</v>
       </c>
       <c r="J35">
         <v>25</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35" si="131">CONCATENATE(SUM(J35,-2),"-",SUM(J35,2))</f>
+        <f t="shared" ref="K35" si="195">CONCATENATE(SUM(J35,-2),"-",SUM(J35,2))</f>
         <v>23-27</v>
       </c>
       <c r="L35">
         <v>11</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ref="M35" si="132">CONCATENATE(SUM(L35,-2),"-",SUM(L35,2))</f>
+        <f t="shared" ref="M35" si="196">CONCATENATE(SUM(L35,-2),"-",SUM(L35,2))</f>
         <v>9-13</v>
       </c>
       <c r="N35">
         <v>17</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" ref="O35" si="133">CONCATENATE(SUM(N35,-2),"-",SUM(N35,2))</f>
+        <f t="shared" ref="O35" si="197">CONCATENATE(SUM(N35,-2),"-",SUM(N35,2))</f>
         <v>15-19</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ref="Q35" ca="1" si="198">CONCATENATE(SUM(P35,-2),"-",SUM(P35,2))</f>
+        <v>16-20</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>31</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" ref="S35" ca="1" si="199">CONCATENATE(SUM(R35,-2),"-",SUM(R35,2))</f>
+        <v>29-33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2513,47 +2785,55 @@
         <v>21</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ref="G36:I36" si="134">CONCATENATE(SUM(F36,-2),"-",SUM(F36,2))</f>
+        <f t="shared" ref="G36:I36" si="200">CONCATENATE(SUM(F36,-2),"-",SUM(F36,2))</f>
         <v>19-23</v>
       </c>
       <c r="H36">
         <v>31</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="200"/>
         <v>29-33</v>
       </c>
       <c r="J36">
         <v>25</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" ref="K36" si="135">CONCATENATE(SUM(J36,-2),"-",SUM(J36,2))</f>
+        <f t="shared" ref="K36" si="201">CONCATENATE(SUM(J36,-2),"-",SUM(J36,2))</f>
         <v>23-27</v>
       </c>
       <c r="L36">
         <v>11</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" ref="M36" si="136">CONCATENATE(SUM(L36,-2),"-",SUM(L36,2))</f>
+        <f t="shared" ref="M36" si="202">CONCATENATE(SUM(L36,-2),"-",SUM(L36,2))</f>
         <v>9-13</v>
       </c>
       <c r="N36">
         <v>17</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" ref="O36" si="137">CONCATENATE(SUM(N36,-2),"-",SUM(N36,2))</f>
+        <f t="shared" ref="O36" si="203">CONCATENATE(SUM(N36,-2),"-",SUM(N36,2))</f>
         <v>15-19</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ref="Q36" ca="1" si="204">CONCATENATE(SUM(P36,-2),"-",SUM(P36,2))</f>
+        <v>36-40</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="str">
+        <f t="shared" ref="S36" ca="1" si="205">CONCATENATE(SUM(R36,-2),"-",SUM(R36,2))</f>
+        <v>20-24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2575,47 +2855,55 @@
         <v>21</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:I37" si="138">CONCATENATE(SUM(F37,-2),"-",SUM(F37,2))</f>
+        <f t="shared" ref="G37:I37" si="206">CONCATENATE(SUM(F37,-2),"-",SUM(F37,2))</f>
         <v>19-23</v>
       </c>
       <c r="H37">
         <v>31</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="206"/>
         <v>29-33</v>
       </c>
       <c r="J37">
         <v>25</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" ref="K37" si="139">CONCATENATE(SUM(J37,-2),"-",SUM(J37,2))</f>
+        <f t="shared" ref="K37" si="207">CONCATENATE(SUM(J37,-2),"-",SUM(J37,2))</f>
         <v>23-27</v>
       </c>
       <c r="L37">
         <v>11</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" ref="M37" si="140">CONCATENATE(SUM(L37,-2),"-",SUM(L37,2))</f>
+        <f t="shared" ref="M37" si="208">CONCATENATE(SUM(L37,-2),"-",SUM(L37,2))</f>
         <v>9-13</v>
       </c>
       <c r="N37">
         <v>17</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" ref="O37" si="141">CONCATENATE(SUM(N37,-2),"-",SUM(N37,2))</f>
+        <f t="shared" ref="O37" si="209">CONCATENATE(SUM(N37,-2),"-",SUM(N37,2))</f>
         <v>15-19</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" ref="Q37" ca="1" si="210">CONCATENATE(SUM(P37,-2),"-",SUM(P37,2))</f>
+        <v>30-34</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" ref="S37" ca="1" si="211">CONCATENATE(SUM(R37,-2),"-",SUM(R37,2))</f>
+        <v>4-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2637,47 +2925,55 @@
         <v>21</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ref="G38:I38" si="142">CONCATENATE(SUM(F38,-2),"-",SUM(F38,2))</f>
+        <f t="shared" ref="G38:I38" si="212">CONCATENATE(SUM(F38,-2),"-",SUM(F38,2))</f>
         <v>19-23</v>
       </c>
       <c r="H38">
         <v>31</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="212"/>
         <v>29-33</v>
       </c>
       <c r="J38">
         <v>25</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" ref="K38" si="143">CONCATENATE(SUM(J38,-2),"-",SUM(J38,2))</f>
+        <f t="shared" ref="K38" si="213">CONCATENATE(SUM(J38,-2),"-",SUM(J38,2))</f>
         <v>23-27</v>
       </c>
       <c r="L38">
         <v>11</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" ref="M38" si="144">CONCATENATE(SUM(L38,-2),"-",SUM(L38,2))</f>
+        <f t="shared" ref="M38" si="214">CONCATENATE(SUM(L38,-2),"-",SUM(L38,2))</f>
         <v>9-13</v>
       </c>
       <c r="N38">
         <v>17</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" ref="O38" si="145">CONCATENATE(SUM(N38,-2),"-",SUM(N38,2))</f>
+        <f t="shared" ref="O38" si="215">CONCATENATE(SUM(N38,-2),"-",SUM(N38,2))</f>
         <v>15-19</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ref="Q38" ca="1" si="216">CONCATENATE(SUM(P38,-2),"-",SUM(P38,2))</f>
+        <v>36-40</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" ref="S38" ca="1" si="217">CONCATENATE(SUM(R38,-2),"-",SUM(R38,2))</f>
+        <v>4-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2699,47 +2995,55 @@
         <v>21</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39:I39" si="146">CONCATENATE(SUM(F39,-2),"-",SUM(F39,2))</f>
+        <f t="shared" ref="G39:I39" si="218">CONCATENATE(SUM(F39,-2),"-",SUM(F39,2))</f>
         <v>19-23</v>
       </c>
       <c r="H39">
         <v>31</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="218"/>
         <v>29-33</v>
       </c>
       <c r="J39">
         <v>25</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" ref="K39" si="147">CONCATENATE(SUM(J39,-2),"-",SUM(J39,2))</f>
+        <f t="shared" ref="K39" si="219">CONCATENATE(SUM(J39,-2),"-",SUM(J39,2))</f>
         <v>23-27</v>
       </c>
       <c r="L39">
         <v>11</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" ref="M39" si="148">CONCATENATE(SUM(L39,-2),"-",SUM(L39,2))</f>
+        <f t="shared" ref="M39" si="220">CONCATENATE(SUM(L39,-2),"-",SUM(L39,2))</f>
         <v>9-13</v>
       </c>
       <c r="N39">
         <v>17</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" ref="O39" si="149">CONCATENATE(SUM(N39,-2),"-",SUM(N39,2))</f>
+        <f t="shared" ref="O39" si="221">CONCATENATE(SUM(N39,-2),"-",SUM(N39,2))</f>
         <v>15-19</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ref="Q39" ca="1" si="222">CONCATENATE(SUM(P39,-2),"-",SUM(P39,2))</f>
+        <v>15-19</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="str">
+        <f t="shared" ref="S39" ca="1" si="223">CONCATENATE(SUM(R39,-2),"-",SUM(R39,2))</f>
+        <v>38-42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2761,47 +3065,55 @@
         <v>21</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ref="G40:I40" si="150">CONCATENATE(SUM(F40,-2),"-",SUM(F40,2))</f>
+        <f t="shared" ref="G40:I40" si="224">CONCATENATE(SUM(F40,-2),"-",SUM(F40,2))</f>
         <v>19-23</v>
       </c>
       <c r="H40">
         <v>31</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="224"/>
         <v>29-33</v>
       </c>
       <c r="J40">
         <v>25</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" ref="K40" si="151">CONCATENATE(SUM(J40,-2),"-",SUM(J40,2))</f>
+        <f t="shared" ref="K40" si="225">CONCATENATE(SUM(J40,-2),"-",SUM(J40,2))</f>
         <v>23-27</v>
       </c>
       <c r="L40">
         <v>11</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" ref="M40" si="152">CONCATENATE(SUM(L40,-2),"-",SUM(L40,2))</f>
+        <f t="shared" ref="M40" si="226">CONCATENATE(SUM(L40,-2),"-",SUM(L40,2))</f>
         <v>9-13</v>
       </c>
       <c r="N40">
         <v>17</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" ref="O40" si="153">CONCATENATE(SUM(N40,-2),"-",SUM(N40,2))</f>
+        <f t="shared" ref="O40" si="227">CONCATENATE(SUM(N40,-2),"-",SUM(N40,2))</f>
         <v>15-19</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ref="Q40" ca="1" si="228">CONCATENATE(SUM(P40,-2),"-",SUM(P40,2))</f>
+        <v>-1-3</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" ref="S40" ca="1" si="229">CONCATENATE(SUM(R40,-2),"-",SUM(R40,2))</f>
+        <v>4-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2823,47 +3135,55 @@
         <v>21</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ref="G41:I41" si="154">CONCATENATE(SUM(F41,-2),"-",SUM(F41,2))</f>
+        <f t="shared" ref="G41:I41" si="230">CONCATENATE(SUM(F41,-2),"-",SUM(F41,2))</f>
         <v>19-23</v>
       </c>
       <c r="H41">
         <v>31</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="230"/>
         <v>29-33</v>
       </c>
       <c r="J41">
         <v>25</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" ref="K41" si="155">CONCATENATE(SUM(J41,-2),"-",SUM(J41,2))</f>
+        <f t="shared" ref="K41" si="231">CONCATENATE(SUM(J41,-2),"-",SUM(J41,2))</f>
         <v>23-27</v>
       </c>
       <c r="L41">
         <v>11</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" ref="M41" si="156">CONCATENATE(SUM(L41,-2),"-",SUM(L41,2))</f>
+        <f t="shared" ref="M41" si="232">CONCATENATE(SUM(L41,-2),"-",SUM(L41,2))</f>
         <v>9-13</v>
       </c>
       <c r="N41">
         <v>17</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" ref="O41" si="157">CONCATENATE(SUM(N41,-2),"-",SUM(N41,2))</f>
+        <f t="shared" ref="O41" si="233">CONCATENATE(SUM(N41,-2),"-",SUM(N41,2))</f>
         <v>15-19</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ref="Q41" ca="1" si="234">CONCATENATE(SUM(P41,-2),"-",SUM(P41,2))</f>
+        <v>12-16</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>14</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" ref="S41" ca="1" si="235">CONCATENATE(SUM(R41,-2),"-",SUM(R41,2))</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2885,47 +3205,55 @@
         <v>21</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" ref="G42:I42" si="158">CONCATENATE(SUM(F42,-2),"-",SUM(F42,2))</f>
+        <f t="shared" ref="G42:I42" si="236">CONCATENATE(SUM(F42,-2),"-",SUM(F42,2))</f>
         <v>19-23</v>
       </c>
       <c r="H42">
         <v>31</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="236"/>
         <v>29-33</v>
       </c>
       <c r="J42">
         <v>25</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" ref="K42" si="159">CONCATENATE(SUM(J42,-2),"-",SUM(J42,2))</f>
+        <f t="shared" ref="K42" si="237">CONCATENATE(SUM(J42,-2),"-",SUM(J42,2))</f>
         <v>23-27</v>
       </c>
       <c r="L42">
         <v>11</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" ref="M42" si="160">CONCATENATE(SUM(L42,-2),"-",SUM(L42,2))</f>
+        <f t="shared" ref="M42" si="238">CONCATENATE(SUM(L42,-2),"-",SUM(L42,2))</f>
         <v>9-13</v>
       </c>
       <c r="N42">
         <v>17</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" ref="O42" si="161">CONCATENATE(SUM(N42,-2),"-",SUM(N42,2))</f>
+        <f t="shared" ref="O42" si="239">CONCATENATE(SUM(N42,-2),"-",SUM(N42,2))</f>
         <v>15-19</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42" ca="1" si="240">CONCATENATE(SUM(P42,-2),"-",SUM(P42,2))</f>
+        <v>22-26</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>42</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" ref="S42" ca="1" si="241">CONCATENATE(SUM(R42,-2),"-",SUM(R42,2))</f>
+        <v>40-44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2947,47 +3275,55 @@
         <v>21</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ref="G43:I43" si="162">CONCATENATE(SUM(F43,-2),"-",SUM(F43,2))</f>
+        <f t="shared" ref="G43:I43" si="242">CONCATENATE(SUM(F43,-2),"-",SUM(F43,2))</f>
         <v>19-23</v>
       </c>
       <c r="H43">
         <v>31</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="242"/>
         <v>29-33</v>
       </c>
       <c r="J43">
         <v>25</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" ref="K43" si="163">CONCATENATE(SUM(J43,-2),"-",SUM(J43,2))</f>
+        <f t="shared" ref="K43" si="243">CONCATENATE(SUM(J43,-2),"-",SUM(J43,2))</f>
         <v>23-27</v>
       </c>
       <c r="L43">
         <v>11</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" ref="M43" si="164">CONCATENATE(SUM(L43,-2),"-",SUM(L43,2))</f>
+        <f t="shared" ref="M43" si="244">CONCATENATE(SUM(L43,-2),"-",SUM(L43,2))</f>
         <v>9-13</v>
       </c>
       <c r="N43">
         <v>17</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" ref="O43" si="165">CONCATENATE(SUM(N43,-2),"-",SUM(N43,2))</f>
+        <f t="shared" ref="O43" si="245">CONCATENATE(SUM(N43,-2),"-",SUM(N43,2))</f>
         <v>15-19</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" ref="Q43" ca="1" si="246">CONCATENATE(SUM(P43,-2),"-",SUM(P43,2))</f>
+        <v>29-33</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>14</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" ref="S43" ca="1" si="247">CONCATENATE(SUM(R43,-2),"-",SUM(R43,2))</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3009,47 +3345,55 @@
         <v>21</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" ref="G44:I44" si="166">CONCATENATE(SUM(F44,-2),"-",SUM(F44,2))</f>
+        <f t="shared" ref="G44:I44" si="248">CONCATENATE(SUM(F44,-2),"-",SUM(F44,2))</f>
         <v>19-23</v>
       </c>
       <c r="H44">
         <v>31</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="248"/>
         <v>29-33</v>
       </c>
       <c r="J44">
         <v>25</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" ref="K44" si="167">CONCATENATE(SUM(J44,-2),"-",SUM(J44,2))</f>
+        <f t="shared" ref="K44" si="249">CONCATENATE(SUM(J44,-2),"-",SUM(J44,2))</f>
         <v>23-27</v>
       </c>
       <c r="L44">
         <v>11</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ref="M44" si="168">CONCATENATE(SUM(L44,-2),"-",SUM(L44,2))</f>
+        <f t="shared" ref="M44" si="250">CONCATENATE(SUM(L44,-2),"-",SUM(L44,2))</f>
         <v>9-13</v>
       </c>
       <c r="N44">
         <v>17</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" ref="O44" si="169">CONCATENATE(SUM(N44,-2),"-",SUM(N44,2))</f>
+        <f t="shared" ref="O44" si="251">CONCATENATE(SUM(N44,-2),"-",SUM(N44,2))</f>
         <v>15-19</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" ref="Q44" ca="1" si="252">CONCATENATE(SUM(P44,-2),"-",SUM(P44,2))</f>
+        <v>23-27</v>
       </c>
       <c r="R44">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>17</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" ref="S44" ca="1" si="253">CONCATENATE(SUM(R44,-2),"-",SUM(R44,2))</f>
+        <v>15-19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3071,47 +3415,55 @@
         <v>21</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45:I45" si="170">CONCATENATE(SUM(F45,-2),"-",SUM(F45,2))</f>
+        <f t="shared" ref="G45:I45" si="254">CONCATENATE(SUM(F45,-2),"-",SUM(F45,2))</f>
         <v>19-23</v>
       </c>
       <c r="H45">
         <v>31</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="254"/>
         <v>29-33</v>
       </c>
       <c r="J45">
         <v>25</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" ref="K45" si="171">CONCATENATE(SUM(J45,-2),"-",SUM(J45,2))</f>
+        <f t="shared" ref="K45" si="255">CONCATENATE(SUM(J45,-2),"-",SUM(J45,2))</f>
         <v>23-27</v>
       </c>
       <c r="L45">
         <v>11</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ref="M45" si="172">CONCATENATE(SUM(L45,-2),"-",SUM(L45,2))</f>
+        <f t="shared" ref="M45" si="256">CONCATENATE(SUM(L45,-2),"-",SUM(L45,2))</f>
         <v>9-13</v>
       </c>
       <c r="N45">
         <v>17</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" ref="O45" si="173">CONCATENATE(SUM(N45,-2),"-",SUM(N45,2))</f>
+        <f t="shared" ref="O45" si="257">CONCATENATE(SUM(N45,-2),"-",SUM(N45,2))</f>
         <v>15-19</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" ref="Q45" ca="1" si="258">CONCATENATE(SUM(P45,-2),"-",SUM(P45,2))</f>
+        <v>6-10</v>
       </c>
       <c r="R45">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>14</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" ref="S45" ca="1" si="259">CONCATENATE(SUM(R45,-2),"-",SUM(R45,2))</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3133,47 +3485,55 @@
         <v>21</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" ref="G46:I46" si="174">CONCATENATE(SUM(F46,-2),"-",SUM(F46,2))</f>
+        <f t="shared" ref="G46:I46" si="260">CONCATENATE(SUM(F46,-2),"-",SUM(F46,2))</f>
         <v>19-23</v>
       </c>
       <c r="H46">
         <v>31</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" si="260"/>
         <v>29-33</v>
       </c>
       <c r="J46">
         <v>25</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" ref="K46" si="175">CONCATENATE(SUM(J46,-2),"-",SUM(J46,2))</f>
+        <f t="shared" ref="K46" si="261">CONCATENATE(SUM(J46,-2),"-",SUM(J46,2))</f>
         <v>23-27</v>
       </c>
       <c r="L46">
         <v>11</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" ref="M46" si="176">CONCATENATE(SUM(L46,-2),"-",SUM(L46,2))</f>
+        <f t="shared" ref="M46" si="262">CONCATENATE(SUM(L46,-2),"-",SUM(L46,2))</f>
         <v>9-13</v>
       </c>
       <c r="N46">
         <v>17</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" ref="O46" si="177">CONCATENATE(SUM(N46,-2),"-",SUM(N46,2))</f>
+        <f t="shared" ref="O46" si="263">CONCATENATE(SUM(N46,-2),"-",SUM(N46,2))</f>
         <v>15-19</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ref="Q46" ca="1" si="264">CONCATENATE(SUM(P46,-2),"-",SUM(P46,2))</f>
+        <v>17-21</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" ref="S46" ca="1" si="265">CONCATENATE(SUM(R46,-2),"-",SUM(R46,2))</f>
+        <v>5-9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3195,47 +3555,55 @@
         <v>21</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" ref="G47:I47" si="178">CONCATENATE(SUM(F47,-2),"-",SUM(F47,2))</f>
+        <f t="shared" ref="G47:I47" si="266">CONCATENATE(SUM(F47,-2),"-",SUM(F47,2))</f>
         <v>19-23</v>
       </c>
       <c r="H47">
         <v>31</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="266"/>
         <v>29-33</v>
       </c>
       <c r="J47">
         <v>25</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" ref="K47" si="179">CONCATENATE(SUM(J47,-2),"-",SUM(J47,2))</f>
+        <f t="shared" ref="K47" si="267">CONCATENATE(SUM(J47,-2),"-",SUM(J47,2))</f>
         <v>23-27</v>
       </c>
       <c r="L47">
         <v>11</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ref="M47" si="180">CONCATENATE(SUM(L47,-2),"-",SUM(L47,2))</f>
+        <f t="shared" ref="M47" si="268">CONCATENATE(SUM(L47,-2),"-",SUM(L47,2))</f>
         <v>9-13</v>
       </c>
       <c r="N47">
         <v>17</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" ref="O47" si="181">CONCATENATE(SUM(N47,-2),"-",SUM(N47,2))</f>
+        <f t="shared" ref="O47" si="269">CONCATENATE(SUM(N47,-2),"-",SUM(N47,2))</f>
         <v>15-19</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" ref="Q47" ca="1" si="270">CONCATENATE(SUM(P47,-2),"-",SUM(P47,2))</f>
+        <v>15-19</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>33</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" ref="S47" ca="1" si="271">CONCATENATE(SUM(R47,-2),"-",SUM(R47,2))</f>
+        <v>31-35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3257,47 +3625,55 @@
         <v>21</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" ref="G48:I48" si="182">CONCATENATE(SUM(F48,-2),"-",SUM(F48,2))</f>
+        <f t="shared" ref="G48:I48" si="272">CONCATENATE(SUM(F48,-2),"-",SUM(F48,2))</f>
         <v>19-23</v>
       </c>
       <c r="H48">
         <v>31</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="272"/>
         <v>29-33</v>
       </c>
       <c r="J48">
         <v>25</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" ref="K48" si="183">CONCATENATE(SUM(J48,-2),"-",SUM(J48,2))</f>
+        <f t="shared" ref="K48" si="273">CONCATENATE(SUM(J48,-2),"-",SUM(J48,2))</f>
         <v>23-27</v>
       </c>
       <c r="L48">
         <v>11</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" ref="M48" si="184">CONCATENATE(SUM(L48,-2),"-",SUM(L48,2))</f>
+        <f t="shared" ref="M48" si="274">CONCATENATE(SUM(L48,-2),"-",SUM(L48,2))</f>
         <v>9-13</v>
       </c>
       <c r="N48">
         <v>17</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" ref="O48" si="185">CONCATENATE(SUM(N48,-2),"-",SUM(N48,2))</f>
+        <f t="shared" ref="O48" si="275">CONCATENATE(SUM(N48,-2),"-",SUM(N48,2))</f>
         <v>15-19</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ref="Q48" ca="1" si="276">CONCATENATE(SUM(P48,-2),"-",SUM(P48,2))</f>
+        <v>19-23</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" ref="S48" ca="1" si="277">CONCATENATE(SUM(R48,-2),"-",SUM(R48,2))</f>
+        <v>5-9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3319,47 +3695,55 @@
         <v>21</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" ref="G49:I49" si="186">CONCATENATE(SUM(F49,-2),"-",SUM(F49,2))</f>
+        <f t="shared" ref="G49:I49" si="278">CONCATENATE(SUM(F49,-2),"-",SUM(F49,2))</f>
         <v>19-23</v>
       </c>
       <c r="H49">
         <v>31</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="278"/>
         <v>29-33</v>
       </c>
       <c r="J49">
         <v>25</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" ref="K49" si="187">CONCATENATE(SUM(J49,-2),"-",SUM(J49,2))</f>
+        <f t="shared" ref="K49" si="279">CONCATENATE(SUM(J49,-2),"-",SUM(J49,2))</f>
         <v>23-27</v>
       </c>
       <c r="L49">
         <v>11</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" ref="M49" si="188">CONCATENATE(SUM(L49,-2),"-",SUM(L49,2))</f>
+        <f t="shared" ref="M49" si="280">CONCATENATE(SUM(L49,-2),"-",SUM(L49,2))</f>
         <v>9-13</v>
       </c>
       <c r="N49">
         <v>17</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" ref="O49" si="189">CONCATENATE(SUM(N49,-2),"-",SUM(N49,2))</f>
+        <f t="shared" ref="O49" si="281">CONCATENATE(SUM(N49,-2),"-",SUM(N49,2))</f>
         <v>15-19</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" ref="Q49" ca="1" si="282">CONCATENATE(SUM(P49,-2),"-",SUM(P49,2))</f>
+        <v>-1-3</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" ref="S49" ca="1" si="283">CONCATENATE(SUM(R49,-2),"-",SUM(R49,2))</f>
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3381,47 +3765,55 @@
         <v>21</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" ref="G50:I50" si="190">CONCATENATE(SUM(F50,-2),"-",SUM(F50,2))</f>
+        <f t="shared" ref="G50:I50" si="284">CONCATENATE(SUM(F50,-2),"-",SUM(F50,2))</f>
         <v>19-23</v>
       </c>
       <c r="H50">
         <v>31</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="284"/>
         <v>29-33</v>
       </c>
       <c r="J50">
         <v>25</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" ref="K50" si="191">CONCATENATE(SUM(J50,-2),"-",SUM(J50,2))</f>
+        <f t="shared" ref="K50" si="285">CONCATENATE(SUM(J50,-2),"-",SUM(J50,2))</f>
         <v>23-27</v>
       </c>
       <c r="L50">
         <v>11</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ref="M50" si="192">CONCATENATE(SUM(L50,-2),"-",SUM(L50,2))</f>
+        <f t="shared" ref="M50" si="286">CONCATENATE(SUM(L50,-2),"-",SUM(L50,2))</f>
         <v>9-13</v>
       </c>
       <c r="N50">
         <v>17</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" ref="O50" si="193">CONCATENATE(SUM(N50,-2),"-",SUM(N50,2))</f>
+        <f t="shared" ref="O50" si="287">CONCATENATE(SUM(N50,-2),"-",SUM(N50,2))</f>
         <v>15-19</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ref="Q50" ca="1" si="288">CONCATENATE(SUM(P50,-2),"-",SUM(P50,2))</f>
+        <v>21-25</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>11</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" ref="S50" ca="1" si="289">CONCATENATE(SUM(R50,-2),"-",SUM(R50,2))</f>
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3443,47 +3835,55 @@
         <v>21</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ref="G51:I51" si="194">CONCATENATE(SUM(F51,-2),"-",SUM(F51,2))</f>
+        <f t="shared" ref="G51:I51" si="290">CONCATENATE(SUM(F51,-2),"-",SUM(F51,2))</f>
         <v>19-23</v>
       </c>
       <c r="H51">
         <v>31</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="290"/>
         <v>29-33</v>
       </c>
       <c r="J51">
         <v>25</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" ref="K51" si="195">CONCATENATE(SUM(J51,-2),"-",SUM(J51,2))</f>
+        <f t="shared" ref="K51" si="291">CONCATENATE(SUM(J51,-2),"-",SUM(J51,2))</f>
         <v>23-27</v>
       </c>
       <c r="L51">
         <v>11</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" ref="M51" si="196">CONCATENATE(SUM(L51,-2),"-",SUM(L51,2))</f>
+        <f t="shared" ref="M51" si="292">CONCATENATE(SUM(L51,-2),"-",SUM(L51,2))</f>
         <v>9-13</v>
       </c>
       <c r="N51">
         <v>17</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" ref="O51" si="197">CONCATENATE(SUM(N51,-2),"-",SUM(N51,2))</f>
+        <f t="shared" ref="O51" si="293">CONCATENATE(SUM(N51,-2),"-",SUM(N51,2))</f>
         <v>15-19</v>
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51" ca="1" si="294">CONCATENATE(SUM(P51,-2),"-",SUM(P51,2))</f>
+        <v>0-4</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>40</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" ref="S51" ca="1" si="295">CONCATENATE(SUM(R51,-2),"-",SUM(R51,2))</f>
+        <v>38-42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3505,47 +3905,55 @@
         <v>21</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" ref="G52:I52" si="198">CONCATENATE(SUM(F52,-2),"-",SUM(F52,2))</f>
+        <f t="shared" ref="G52:I52" si="296">CONCATENATE(SUM(F52,-2),"-",SUM(F52,2))</f>
         <v>19-23</v>
       </c>
       <c r="H52">
         <v>31</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="296"/>
         <v>29-33</v>
       </c>
       <c r="J52">
         <v>25</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" ref="K52" si="199">CONCATENATE(SUM(J52,-2),"-",SUM(J52,2))</f>
+        <f t="shared" ref="K52" si="297">CONCATENATE(SUM(J52,-2),"-",SUM(J52,2))</f>
         <v>23-27</v>
       </c>
       <c r="L52">
         <v>11</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" ref="M52" si="200">CONCATENATE(SUM(L52,-2),"-",SUM(L52,2))</f>
+        <f t="shared" ref="M52" si="298">CONCATENATE(SUM(L52,-2),"-",SUM(L52,2))</f>
         <v>9-13</v>
       </c>
       <c r="N52">
         <v>17</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" ref="O52" si="201">CONCATENATE(SUM(N52,-2),"-",SUM(N52,2))</f>
+        <f t="shared" ref="O52" si="299">CONCATENATE(SUM(N52,-2),"-",SUM(N52,2))</f>
         <v>15-19</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ref="Q52" ca="1" si="300">CONCATENATE(SUM(P52,-2),"-",SUM(P52,2))</f>
+        <v>30-34</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" ref="S52" ca="1" si="301">CONCATENATE(SUM(R52,-2),"-",SUM(R52,2))</f>
+        <v>2-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3567,47 +3975,55 @@
         <v>21</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" ref="G53:I53" si="202">CONCATENATE(SUM(F53,-2),"-",SUM(F53,2))</f>
+        <f t="shared" ref="G53:I53" si="302">CONCATENATE(SUM(F53,-2),"-",SUM(F53,2))</f>
         <v>19-23</v>
       </c>
       <c r="H53">
         <v>31</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="302"/>
         <v>29-33</v>
       </c>
       <c r="J53">
         <v>25</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" ref="K53" si="203">CONCATENATE(SUM(J53,-2),"-",SUM(J53,2))</f>
+        <f t="shared" ref="K53" si="303">CONCATENATE(SUM(J53,-2),"-",SUM(J53,2))</f>
         <v>23-27</v>
       </c>
       <c r="L53">
         <v>11</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" ref="M53" si="204">CONCATENATE(SUM(L53,-2),"-",SUM(L53,2))</f>
+        <f t="shared" ref="M53" si="304">CONCATENATE(SUM(L53,-2),"-",SUM(L53,2))</f>
         <v>9-13</v>
       </c>
       <c r="N53">
         <v>17</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" ref="O53" si="205">CONCATENATE(SUM(N53,-2),"-",SUM(N53,2))</f>
+        <f t="shared" ref="O53" si="305">CONCATENATE(SUM(N53,-2),"-",SUM(N53,2))</f>
         <v>15-19</v>
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" ref="Q53" ca="1" si="306">CONCATENATE(SUM(P53,-2),"-",SUM(P53,2))</f>
+        <v>1-5</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" ref="S53" ca="1" si="307">CONCATENATE(SUM(R53,-2),"-",SUM(R53,2))</f>
+        <v>24-28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3629,47 +4045,55 @@
         <v>21</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" ref="G54:I54" si="206">CONCATENATE(SUM(F54,-2),"-",SUM(F54,2))</f>
+        <f t="shared" ref="G54:I54" si="308">CONCATENATE(SUM(F54,-2),"-",SUM(F54,2))</f>
         <v>19-23</v>
       </c>
       <c r="H54">
         <v>31</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="308"/>
         <v>29-33</v>
       </c>
       <c r="J54">
         <v>25</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" ref="K54" si="207">CONCATENATE(SUM(J54,-2),"-",SUM(J54,2))</f>
+        <f t="shared" ref="K54" si="309">CONCATENATE(SUM(J54,-2),"-",SUM(J54,2))</f>
         <v>23-27</v>
       </c>
       <c r="L54">
         <v>11</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" ref="M54" si="208">CONCATENATE(SUM(L54,-2),"-",SUM(L54,2))</f>
+        <f t="shared" ref="M54" si="310">CONCATENATE(SUM(L54,-2),"-",SUM(L54,2))</f>
         <v>9-13</v>
       </c>
       <c r="N54">
         <v>17</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" ref="O54" si="209">CONCATENATE(SUM(N54,-2),"-",SUM(N54,2))</f>
+        <f t="shared" ref="O54" si="311">CONCATENATE(SUM(N54,-2),"-",SUM(N54,2))</f>
         <v>15-19</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" ref="Q54" ca="1" si="312">CONCATENATE(SUM(P54,-2),"-",SUM(P54,2))</f>
+        <v>4-8</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>22</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" ref="S54" ca="1" si="313">CONCATENATE(SUM(R54,-2),"-",SUM(R54,2))</f>
+        <v>20-24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3691,47 +4115,55 @@
         <v>21</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:I55" si="210">CONCATENATE(SUM(F55,-2),"-",SUM(F55,2))</f>
+        <f t="shared" ref="G55:I55" si="314">CONCATENATE(SUM(F55,-2),"-",SUM(F55,2))</f>
         <v>19-23</v>
       </c>
       <c r="H55">
         <v>31</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="314"/>
         <v>29-33</v>
       </c>
       <c r="J55">
         <v>25</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55" si="211">CONCATENATE(SUM(J55,-2),"-",SUM(J55,2))</f>
+        <f t="shared" ref="K55" si="315">CONCATENATE(SUM(J55,-2),"-",SUM(J55,2))</f>
         <v>23-27</v>
       </c>
       <c r="L55">
         <v>11</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" ref="M55" si="212">CONCATENATE(SUM(L55,-2),"-",SUM(L55,2))</f>
+        <f t="shared" ref="M55" si="316">CONCATENATE(SUM(L55,-2),"-",SUM(L55,2))</f>
         <v>9-13</v>
       </c>
       <c r="N55">
         <v>17</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" ref="O55" si="213">CONCATENATE(SUM(N55,-2),"-",SUM(N55,2))</f>
+        <f t="shared" ref="O55" si="317">CONCATENATE(SUM(N55,-2),"-",SUM(N55,2))</f>
         <v>15-19</v>
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55" ca="1" si="318">CONCATENATE(SUM(P55,-2),"-",SUM(P55,2))</f>
+        <v>31-35</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>13</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" ref="S55" ca="1" si="319">CONCATENATE(SUM(R55,-2),"-",SUM(R55,2))</f>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3753,47 +4185,55 @@
         <v>21</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:I56" si="214">CONCATENATE(SUM(F56,-2),"-",SUM(F56,2))</f>
+        <f t="shared" ref="G56:I56" si="320">CONCATENATE(SUM(F56,-2),"-",SUM(F56,2))</f>
         <v>19-23</v>
       </c>
       <c r="H56">
         <v>31</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="320"/>
         <v>29-33</v>
       </c>
       <c r="J56">
         <v>25</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" ref="K56" si="215">CONCATENATE(SUM(J56,-2),"-",SUM(J56,2))</f>
+        <f t="shared" ref="K56" si="321">CONCATENATE(SUM(J56,-2),"-",SUM(J56,2))</f>
         <v>23-27</v>
       </c>
       <c r="L56">
         <v>11</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" ref="M56" si="216">CONCATENATE(SUM(L56,-2),"-",SUM(L56,2))</f>
+        <f t="shared" ref="M56" si="322">CONCATENATE(SUM(L56,-2),"-",SUM(L56,2))</f>
         <v>9-13</v>
       </c>
       <c r="N56">
         <v>17</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" ref="O56" si="217">CONCATENATE(SUM(N56,-2),"-",SUM(N56,2))</f>
+        <f t="shared" ref="O56" si="323">CONCATENATE(SUM(N56,-2),"-",SUM(N56,2))</f>
         <v>15-19</v>
       </c>
       <c r="P56">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" ref="Q56" ca="1" si="324">CONCATENATE(SUM(P56,-2),"-",SUM(P56,2))</f>
+        <v>16-20</v>
       </c>
       <c r="R56">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>30</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" ref="S56" ca="1" si="325">CONCATENATE(SUM(R56,-2),"-",SUM(R56,2))</f>
+        <v>28-32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3815,47 +4255,55 @@
         <v>21</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" ref="G57:I57" si="218">CONCATENATE(SUM(F57,-2),"-",SUM(F57,2))</f>
+        <f t="shared" ref="G57:I57" si="326">CONCATENATE(SUM(F57,-2),"-",SUM(F57,2))</f>
         <v>19-23</v>
       </c>
       <c r="H57">
         <v>31</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="326"/>
         <v>29-33</v>
       </c>
       <c r="J57">
         <v>25</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" ref="K57" si="219">CONCATENATE(SUM(J57,-2),"-",SUM(J57,2))</f>
+        <f t="shared" ref="K57" si="327">CONCATENATE(SUM(J57,-2),"-",SUM(J57,2))</f>
         <v>23-27</v>
       </c>
       <c r="L57">
         <v>11</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" ref="M57" si="220">CONCATENATE(SUM(L57,-2),"-",SUM(L57,2))</f>
+        <f t="shared" ref="M57" si="328">CONCATENATE(SUM(L57,-2),"-",SUM(L57,2))</f>
         <v>9-13</v>
       </c>
       <c r="N57">
         <v>17</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" ref="O57" si="221">CONCATENATE(SUM(N57,-2),"-",SUM(N57,2))</f>
+        <f t="shared" ref="O57" si="329">CONCATENATE(SUM(N57,-2),"-",SUM(N57,2))</f>
         <v>15-19</v>
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" ref="Q57" ca="1" si="330">CONCATENATE(SUM(P57,-2),"-",SUM(P57,2))</f>
+        <v>-1-3</v>
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>19</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" ref="S57" ca="1" si="331">CONCATENATE(SUM(R57,-2),"-",SUM(R57,2))</f>
+        <v>17-21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3877,47 +4325,55 @@
         <v>21</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" ref="G58:I58" si="222">CONCATENATE(SUM(F58,-2),"-",SUM(F58,2))</f>
+        <f t="shared" ref="G58:I58" si="332">CONCATENATE(SUM(F58,-2),"-",SUM(F58,2))</f>
         <v>19-23</v>
       </c>
       <c r="H58">
         <v>31</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="222"/>
+        <f t="shared" si="332"/>
         <v>29-33</v>
       </c>
       <c r="J58">
         <v>25</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" ref="K58" si="223">CONCATENATE(SUM(J58,-2),"-",SUM(J58,2))</f>
+        <f t="shared" ref="K58" si="333">CONCATENATE(SUM(J58,-2),"-",SUM(J58,2))</f>
         <v>23-27</v>
       </c>
       <c r="L58">
         <v>11</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" ref="M58" si="224">CONCATENATE(SUM(L58,-2),"-",SUM(L58,2))</f>
+        <f t="shared" ref="M58" si="334">CONCATENATE(SUM(L58,-2),"-",SUM(L58,2))</f>
         <v>9-13</v>
       </c>
       <c r="N58">
         <v>17</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" ref="O58" si="225">CONCATENATE(SUM(N58,-2),"-",SUM(N58,2))</f>
+        <f t="shared" ref="O58" si="335">CONCATENATE(SUM(N58,-2),"-",SUM(N58,2))</f>
         <v>15-19</v>
       </c>
       <c r="P58">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" ref="Q58" ca="1" si="336">CONCATENATE(SUM(P58,-2),"-",SUM(P58,2))</f>
+        <v>40-44</v>
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>17</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" ref="S58" ca="1" si="337">CONCATENATE(SUM(R58,-2),"-",SUM(R58,2))</f>
+        <v>15-19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3939,47 +4395,55 @@
         <v>21</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" ref="G59:I59" si="226">CONCATENATE(SUM(F59,-2),"-",SUM(F59,2))</f>
+        <f t="shared" ref="G59:I59" si="338">CONCATENATE(SUM(F59,-2),"-",SUM(F59,2))</f>
         <v>19-23</v>
       </c>
       <c r="H59">
         <v>31</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="338"/>
         <v>29-33</v>
       </c>
       <c r="J59">
         <v>25</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" ref="K59" si="227">CONCATENATE(SUM(J59,-2),"-",SUM(J59,2))</f>
+        <f t="shared" ref="K59" si="339">CONCATENATE(SUM(J59,-2),"-",SUM(J59,2))</f>
         <v>23-27</v>
       </c>
       <c r="L59">
         <v>11</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" ref="M59" si="228">CONCATENATE(SUM(L59,-2),"-",SUM(L59,2))</f>
+        <f t="shared" ref="M59" si="340">CONCATENATE(SUM(L59,-2),"-",SUM(L59,2))</f>
         <v>9-13</v>
       </c>
       <c r="N59">
         <v>17</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" ref="O59" si="229">CONCATENATE(SUM(N59,-2),"-",SUM(N59,2))</f>
+        <f t="shared" ref="O59" si="341">CONCATENATE(SUM(N59,-2),"-",SUM(N59,2))</f>
         <v>15-19</v>
       </c>
       <c r="P59">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" ref="Q59" ca="1" si="342">CONCATENATE(SUM(P59,-2),"-",SUM(P59,2))</f>
+        <v>21-25</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" ref="S59" ca="1" si="343">CONCATENATE(SUM(R59,-2),"-",SUM(R59,2))</f>
+        <v>6-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4001,47 +4465,55 @@
         <v>21</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" ref="G60:I60" si="230">CONCATENATE(SUM(F60,-2),"-",SUM(F60,2))</f>
+        <f t="shared" ref="G60:I60" si="344">CONCATENATE(SUM(F60,-2),"-",SUM(F60,2))</f>
         <v>19-23</v>
       </c>
       <c r="H60">
         <v>31</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="344"/>
         <v>29-33</v>
       </c>
       <c r="J60">
         <v>25</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" ref="K60" si="231">CONCATENATE(SUM(J60,-2),"-",SUM(J60,2))</f>
+        <f t="shared" ref="K60" si="345">CONCATENATE(SUM(J60,-2),"-",SUM(J60,2))</f>
         <v>23-27</v>
       </c>
       <c r="L60">
         <v>11</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" ref="M60" si="232">CONCATENATE(SUM(L60,-2),"-",SUM(L60,2))</f>
+        <f t="shared" ref="M60" si="346">CONCATENATE(SUM(L60,-2),"-",SUM(L60,2))</f>
         <v>9-13</v>
       </c>
       <c r="N60">
         <v>17</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" ref="O60" si="233">CONCATENATE(SUM(N60,-2),"-",SUM(N60,2))</f>
+        <f t="shared" ref="O60" si="347">CONCATENATE(SUM(N60,-2),"-",SUM(N60,2))</f>
         <v>15-19</v>
       </c>
       <c r="P60">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" ref="Q60" ca="1" si="348">CONCATENATE(SUM(P60,-2),"-",SUM(P60,2))</f>
+        <v>19-23</v>
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" ref="S60" ca="1" si="349">CONCATENATE(SUM(R60,-2),"-",SUM(R60,2))</f>
+        <v>23-27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4063,47 +4535,55 @@
         <v>21</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" ref="G61:I61" si="234">CONCATENATE(SUM(F61,-2),"-",SUM(F61,2))</f>
+        <f t="shared" ref="G61:I61" si="350">CONCATENATE(SUM(F61,-2),"-",SUM(F61,2))</f>
         <v>19-23</v>
       </c>
       <c r="H61">
         <v>31</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="350"/>
         <v>29-33</v>
       </c>
       <c r="J61">
         <v>25</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" ref="K61" si="235">CONCATENATE(SUM(J61,-2),"-",SUM(J61,2))</f>
+        <f t="shared" ref="K61" si="351">CONCATENATE(SUM(J61,-2),"-",SUM(J61,2))</f>
         <v>23-27</v>
       </c>
       <c r="L61">
         <v>11</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" ref="M61" si="236">CONCATENATE(SUM(L61,-2),"-",SUM(L61,2))</f>
+        <f t="shared" ref="M61" si="352">CONCATENATE(SUM(L61,-2),"-",SUM(L61,2))</f>
         <v>9-13</v>
       </c>
       <c r="N61">
         <v>17</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" ref="O61" si="237">CONCATENATE(SUM(N61,-2),"-",SUM(N61,2))</f>
+        <f t="shared" ref="O61" si="353">CONCATENATE(SUM(N61,-2),"-",SUM(N61,2))</f>
         <v>15-19</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" ref="Q61" ca="1" si="354">CONCATENATE(SUM(P61,-2),"-",SUM(P61,2))</f>
+        <v>30-34</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" ref="S61" ca="1" si="355">CONCATENATE(SUM(R61,-2),"-",SUM(R61,2))</f>
+        <v>1-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>92022</v>
       </c>
@@ -4137,19 +4617,19 @@
       </c>
       <c r="P62">
         <f ca="1">SUM(P2:P61)*74</f>
-        <v>84878</v>
+        <v>92056</v>
       </c>
       <c r="R62">
         <f ca="1">SUM(R2:R61)*74</f>
-        <v>88504</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>88578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>2</v>
       </c>
